--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H2">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I2">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J2">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N2">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q2">
-        <v>28.87114936995111</v>
+        <v>0.1516122651475555</v>
       </c>
       <c r="R2">
-        <v>259.84034432956</v>
+        <v>1.364510386328</v>
       </c>
       <c r="S2">
-        <v>0.06449388887924021</v>
+        <v>0.0003874922698114218</v>
       </c>
       <c r="T2">
-        <v>0.06449388887924021</v>
+        <v>0.0003874922698114217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H3">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I3">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J3">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q3">
-        <v>63.23689884042555</v>
+        <v>1.261036629187111</v>
       </c>
       <c r="R3">
-        <v>569.13208956383</v>
+        <v>11.349329662684</v>
       </c>
       <c r="S3">
-        <v>0.1412619038688817</v>
+        <v>0.003222971078781064</v>
       </c>
       <c r="T3">
-        <v>0.1412619038688818</v>
+        <v>0.003222971078781064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H4">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I4">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J4">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q4">
-        <v>68.78278728604111</v>
+        <v>1.371629789186222</v>
       </c>
       <c r="R4">
-        <v>619.04508557437</v>
+        <v>12.344668102676</v>
       </c>
       <c r="S4">
-        <v>0.1536506005766221</v>
+        <v>0.003505626275258513</v>
       </c>
       <c r="T4">
-        <v>0.1536506005766221</v>
+        <v>0.003505626275258513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H5">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I5">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J5">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N5">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q5">
-        <v>51.45894465779866</v>
+        <v>7.602863590317778</v>
       </c>
       <c r="R5">
-        <v>463.130501920188</v>
+        <v>68.42577231285999</v>
       </c>
       <c r="S5">
-        <v>0.1149516916031479</v>
+        <v>0.01943148113255631</v>
       </c>
       <c r="T5">
-        <v>0.1149516916031479</v>
+        <v>0.01943148113255631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H6">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I6">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J6">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q6">
-        <v>112.7112757466844</v>
+        <v>63.23689884042555</v>
       </c>
       <c r="R6">
-        <v>1014.401481720159</v>
+        <v>569.13208956383</v>
       </c>
       <c r="S6">
-        <v>0.2517803638607399</v>
+        <v>0.1616215511565875</v>
       </c>
       <c r="T6">
-        <v>0.2517803638607399</v>
+        <v>0.1616215511565876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H7">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I7">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J7">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q7">
+        <v>68.78278728604111</v>
+      </c>
+      <c r="R7">
+        <v>619.04508557437</v>
+      </c>
+      <c r="S7">
+        <v>0.1757957929293163</v>
+      </c>
+      <c r="T7">
+        <v>0.1757957929293163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.828401</v>
+      </c>
+      <c r="H8">
+        <v>17.485203</v>
+      </c>
+      <c r="I8">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J8">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.325008666666667</v>
+      </c>
+      <c r="N8">
+        <v>6.975026</v>
+      </c>
+      <c r="O8">
+        <v>0.05445297772988467</v>
+      </c>
+      <c r="P8">
+        <v>0.05445297772988466</v>
+      </c>
+      <c r="Q8">
+        <v>13.55108283780867</v>
+      </c>
+      <c r="R8">
+        <v>121.959745540278</v>
+      </c>
+      <c r="S8">
+        <v>0.03463400432751693</v>
+      </c>
+      <c r="T8">
+        <v>0.03463400432751693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.828401</v>
+      </c>
+      <c r="H9">
+        <v>17.485203</v>
+      </c>
+      <c r="I9">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J9">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.33828433333333</v>
+      </c>
+      <c r="N9">
+        <v>58.014853</v>
+      </c>
+      <c r="O9">
+        <v>0.4529132218878514</v>
+      </c>
+      <c r="P9">
+        <v>0.4529132218878514</v>
+      </c>
+      <c r="Q9">
+        <v>112.7112757466844</v>
+      </c>
+      <c r="R9">
+        <v>1014.401481720159</v>
+      </c>
+      <c r="S9">
+        <v>0.2880686996524828</v>
+      </c>
+      <c r="T9">
+        <v>0.2880686996524828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.828401</v>
+      </c>
+      <c r="H10">
+        <v>17.485203</v>
+      </c>
+      <c r="I10">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J10">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.03425566666667</v>
+      </c>
+      <c r="N10">
+        <v>63.102767</v>
+      </c>
+      <c r="O10">
+        <v>0.492633800382264</v>
+      </c>
+      <c r="P10">
+        <v>0.492633800382264</v>
+      </c>
+      <c r="Q10">
         <v>122.5960767618557</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>1103.364690856701</v>
       </c>
-      <c r="S7">
-        <v>0.2738615512113681</v>
-      </c>
-      <c r="T7">
-        <v>0.2738615512113681</v>
+      <c r="S10">
+        <v>0.3133323811776891</v>
+      </c>
+      <c r="T10">
+        <v>0.3133323811776892</v>
       </c>
     </row>
   </sheetData>
